--- a/projects/pilot_exp/read_processing_stats/index-pair_stats.xlsx
+++ b/projects/pilot_exp/read_processing_stats/index-pair_stats.xlsx
@@ -525,10 +525,10 @@
         <v>97.42323436429463</v>
       </c>
       <c r="K2">
-        <v>253686</v>
+        <v>253684</v>
       </c>
       <c r="L2">
-        <v>90.56268340223188</v>
+        <v>90.56196942760654</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -563,10 +563,10 @@
         <v>97.04315310893544</v>
       </c>
       <c r="K3">
-        <v>272027</v>
+        <v>272037</v>
       </c>
       <c r="L3">
-        <v>90.51545431253348</v>
+        <v>90.51878175629136</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -601,10 +601,10 @@
         <v>97.23550525315555</v>
       </c>
       <c r="K4">
-        <v>226375</v>
+        <v>226385</v>
       </c>
       <c r="L4">
-        <v>89.56372426835686</v>
+        <v>89.56768070013017</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -639,10 +639,10 @@
         <v>96.98403076586737</v>
       </c>
       <c r="K5">
-        <v>346285</v>
+        <v>346277</v>
       </c>
       <c r="L5">
-        <v>88.70368662650108</v>
+        <v>88.70163736218699</v>
       </c>
     </row>
   </sheetData>
